--- a/biology/Zoologie/Afrotyphlops_schmidti/Afrotyphlops_schmidti.xlsx
+++ b/biology/Zoologie/Afrotyphlops_schmidti/Afrotyphlops_schmidti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrotyphlops schmidti est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrotyphlops schmidti est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le centre et l'Est de la République démocratique du Congo, en Tanzanie et en Zambie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le centre et l'Est de la République démocratique du Congo, en Tanzanie et en Zambie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 avril 2014) :
 Afrotyphlops schmidti schmidti (Laurent, 1956)
 Afrotyphlops schmidti laurenti (Wallach, 2003)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Patterson Schmidt[1]. La sous-espèce Afrotyphlops schmidti laurenti est nommée en l'honneur de Raymond Ferdinand Laurent[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Patterson Schmidt. La sous-espèce Afrotyphlops schmidti laurenti est nommée en l'honneur de Raymond Ferdinand Laurent.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Laurent, 1956 : Contribution à l'herpetologie de la région des Grandes Lacs de l'Afrique centrale. Annales du Musée royal de Congo belge (Sciences Zoologiques), vol. 48, p. 1-390.
 Wallach, 2003 : Scolecophidia miscellanea. Hamadryad, vol. 27, no 2, p. 222-240 (texte intégral).</t>
